--- a/classfiers/greedy/welm/greedy_welm_rbf_results.xlsx
+++ b/classfiers/greedy/welm/greedy_welm_rbf_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9785407725321889</v>
+        <v>0.9812206572769953</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8007246376811594</v>
+        <v>0.6997607655502392</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9828326180257511</v>
+        <v>0.9953051643192489</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7292576419213973</v>
+        <v>0.4575471698113208</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9764150943396226</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4588744588744589</v>
+        <v>0.4318840579710145</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5108695652173914</v>
+        <v>0.7055288461538461</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9913793103448276</v>
+        <v>0.9952830188679245</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4478260869565217</v>
+        <v>0.4383886255924171</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9871096640520941</v>
+        <v>0.9858712020550978</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5895104781301856</v>
+        <v>0.5466218930157676</v>
       </c>
     </row>
   </sheetData>
